--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D468EE2-747B-4F49-9358-29B76E3F78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AE992-3CBD-4802-9453-CF1B539E7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>USUARIO</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>renzquispe@gmail.com</t>
+  </si>
+  <si>
+    <t>PARTICIPACION</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,11 +640,12 @@
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="5" max="19" width="8.7109375" style="12" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="19" width="8.7109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -699,8 +703,11 @@
       <c r="S1" s="10">
         <v>44577</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -730,8 +737,11 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -761,8 +771,9 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -792,8 +803,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -823,8 +835,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -883,8 +897,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -914,8 +929,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -943,8 +959,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -974,8 +991,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1005,8 +1023,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1034,8 +1053,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1065,8 +1085,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1096,8 +1117,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1125,8 +1147,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1156,8 +1179,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1185,8 +1209,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1216,8 +1241,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1247,8 +1273,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1278,8 +1305,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1307,8 +1335,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1336,8 +1365,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1355,8 +1385,9 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1374,8 +1405,9 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1393,8 +1425,9 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1412,8 +1445,9 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1431,6 +1465,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S21">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AE992-3CBD-4802-9453-CF1B539E7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57639810-AA5E-4DF6-A667-3D3B63A0BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>USUARIO</t>
   </si>
@@ -632,7 +632,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,9 @@
       <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -789,7 +791,9 @@
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -853,7 +857,9 @@
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -883,7 +889,9 @@
       <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -915,7 +923,9 @@
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -945,7 +955,9 @@
         <v>29</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1071,7 +1083,9 @@
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1103,7 +1117,9 @@
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1165,7 +1181,9 @@
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1195,7 +1213,9 @@
       <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1227,7 +1247,9 @@
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1291,7 +1313,9 @@
       <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1321,7 +1345,9 @@
       <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1351,7 +1377,9 @@
       <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57639810-AA5E-4DF6-A667-3D3B63A0BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0F85D-2682-4E4D-83E7-95EB75B3AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -20,46 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
-  <si>
-    <t>USUARIO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
   <si>
-    <t>Alamo Ramos, Nick Patrick </t>
-  </si>
-  <si>
-    <t>Choquehuanca Roman, Leonardo Ramon </t>
-  </si>
-  <si>
-    <t>Valle Roman, Johnny Gerson </t>
-  </si>
-  <si>
-    <t>Balbin Vega, Luis Neder </t>
-  </si>
-  <si>
-    <t>Balbin Vega, Paula Luisa </t>
-  </si>
-  <si>
-    <t>Chahuayo Huaman, Jim Paul</t>
-  </si>
-  <si>
-    <t>Vega Ramos, Nancy Norah</t>
-  </si>
-  <si>
-    <t>Caceres Caurino, Cesar Jovanni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neyra Caballero, Daniel </t>
-  </si>
-  <si>
     <t>ldelcampob@gmail.com</t>
   </si>
   <si>
@@ -102,9 +79,6 @@
     <t>cmedinabernal2@gmail.com</t>
   </si>
   <si>
-    <t>Bermeo Roman, Martin Alonso</t>
-  </si>
-  <si>
     <t>mabermeo@gmail.com</t>
   </si>
   <si>
@@ -117,39 +91,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Camacho, Satumar</t>
-  </si>
-  <si>
-    <t>Villafuerte, Luis</t>
-  </si>
-  <si>
-    <t>Rodman, Denis</t>
-  </si>
-  <si>
-    <t>Torre, Hernando</t>
-  </si>
-  <si>
-    <t>Medina, Carlos</t>
-  </si>
-  <si>
-    <t>Solano, Diana</t>
-  </si>
-  <si>
-    <t>Diaz, Fredy</t>
-  </si>
-  <si>
-    <t>Del Campo, Luis</t>
-  </si>
-  <si>
-    <t>Vasquez, Luis</t>
-  </si>
-  <si>
-    <t>Del Campo, Miguel Angel</t>
-  </si>
-  <si>
-    <t>Padilla Sandoval, Juan Roberto</t>
-  </si>
-  <si>
     <t>miguel2001delcampo@gmail.com</t>
   </si>
   <si>
@@ -166,6 +107,126 @@
   </si>
   <si>
     <t>PARTICIPACION</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>Alamo Ramos</t>
+  </si>
+  <si>
+    <t>Balbin Vega</t>
+  </si>
+  <si>
+    <t>Bermeo Roman</t>
+  </si>
+  <si>
+    <t>Caceres Caurino</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Chahuayo Huaman</t>
+  </si>
+  <si>
+    <t>Choquehuanca Roman</t>
+  </si>
+  <si>
+    <t>Del Campo</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Neyra Caballero</t>
+  </si>
+  <si>
+    <t>Rodman</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>Valle Roman</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Vega Ramos</t>
+  </si>
+  <si>
+    <t>Padilla Sandoval</t>
+  </si>
+  <si>
+    <t>Nick Patrick </t>
+  </si>
+  <si>
+    <t>Luis Neder </t>
+  </si>
+  <si>
+    <t>Paula Luisa </t>
+  </si>
+  <si>
+    <t>Martin Alonso</t>
+  </si>
+  <si>
+    <t>Cesar Jovanni</t>
+  </si>
+  <si>
+    <t>Satumar</t>
+  </si>
+  <si>
+    <t>Jim Paul</t>
+  </si>
+  <si>
+    <t>Leonardo Ramon </t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel </t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Johnny Gerson </t>
+  </si>
+  <si>
+    <t>Nancy Norah</t>
+  </si>
+  <si>
+    <t>Juan Roberto</t>
+  </si>
+  <si>
+    <t>Torre Camones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villafuerte </t>
   </si>
 </sst>
 </file>
@@ -629,105 +690,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="19" width="8.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="20" width="8.7109375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10">
+      <c r="E1" s="10">
         <v>44472</v>
       </c>
-      <c r="E1" s="10">
+      <c r="F1" s="10">
         <v>44479</v>
       </c>
-      <c r="F1" s="10">
+      <c r="G1" s="10">
         <v>44486</v>
       </c>
-      <c r="G1" s="10">
+      <c r="H1" s="10">
         <v>44493</v>
       </c>
-      <c r="H1" s="10">
+      <c r="I1" s="10">
         <v>44500</v>
       </c>
-      <c r="I1" s="10">
+      <c r="J1" s="10">
         <v>44507</v>
       </c>
-      <c r="J1" s="10">
+      <c r="K1" s="10">
         <v>44514</v>
       </c>
-      <c r="K1" s="10">
+      <c r="L1" s="10">
         <v>44521</v>
       </c>
-      <c r="L1" s="10">
+      <c r="M1" s="10">
         <v>44528</v>
       </c>
-      <c r="M1" s="10">
+      <c r="N1" s="10">
         <v>44535</v>
       </c>
-      <c r="N1" s="10">
+      <c r="O1" s="10">
         <v>44542</v>
       </c>
-      <c r="O1" s="10">
+      <c r="P1" s="10">
         <v>44549</v>
       </c>
-      <c r="P1" s="10">
+      <c r="Q1" s="10">
         <v>44556</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="R1" s="10">
         <v>44563</v>
       </c>
-      <c r="R1" s="10">
+      <c r="S1" s="10">
         <v>44570</v>
       </c>
-      <c r="S1" s="10">
+      <c r="T1" s="10">
         <v>44577</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -739,27 +808,30 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -774,28 +846,33 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -808,26 +885,31 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -840,28 +922,33 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -874,26 +961,31 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -906,28 +998,33 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -940,26 +1037,31 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -972,26 +1074,31 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1004,26 +1111,31 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1036,21 +1148,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1066,28 +1181,33 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1100,28 +1220,33 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1134,22 +1259,25 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1164,27 +1292,30 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1198,26 +1329,31 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1230,28 +1366,33 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1264,24 +1405,27 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1296,28 +1440,33 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1330,26 +1479,31 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1362,26 +1516,31 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1394,10 +1553,10 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1414,10 +1573,10 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1434,10 +1593,10 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1454,10 +1613,10 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1474,10 +1633,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1494,13 +1653,11 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S21">
-    <sortCondition ref="B2:B21"/>
-  </sortState>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1514,11 +1671,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" display="mailto:mabermeo@gmail.com" xr:uid="{4CB0B9E1-3317-4BA0-8793-4D98A5D93DC5}"/>
-    <hyperlink ref="H19" r:id="rId2" display="mailto:ldelcampob@gmail.com" xr:uid="{4A704D0E-078C-49B0-B7F0-3F8821C5E063}"/>
-    <hyperlink ref="H16" r:id="rId3" display="mailto:diana.solano90@gmail.com" xr:uid="{1F092E4D-15E7-4C96-889A-E621288FE123}"/>
-    <hyperlink ref="H11" r:id="rId4" display="mailto:Miguel2001delcampo@gmail.com" xr:uid="{AA99A86D-3068-44FF-A331-EF4C5392E00F}"/>
-    <hyperlink ref="H12" r:id="rId5" display="mailto:frediaz1708@gmail.com" xr:uid="{C7159407-B3A6-41BD-B4DD-665272D05290}"/>
+    <hyperlink ref="I10" r:id="rId1" display="mailto:mabermeo@gmail.com" xr:uid="{4CB0B9E1-3317-4BA0-8793-4D98A5D93DC5}"/>
+    <hyperlink ref="I19" r:id="rId2" display="mailto:ldelcampob@gmail.com" xr:uid="{4A704D0E-078C-49B0-B7F0-3F8821C5E063}"/>
+    <hyperlink ref="I16" r:id="rId3" display="mailto:diana.solano90@gmail.com" xr:uid="{1F092E4D-15E7-4C96-889A-E621288FE123}"/>
+    <hyperlink ref="I11" r:id="rId4" display="mailto:Miguel2001delcampo@gmail.com" xr:uid="{AA99A86D-3068-44FF-A331-EF4C5392E00F}"/>
+    <hyperlink ref="I12" r:id="rId5" display="mailto:frediaz1708@gmail.com" xr:uid="{C7159407-B3A6-41BD-B4DD-665272D05290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0F85D-2682-4E4D-83E7-95EB75B3AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EFB55-2DA8-4B7E-853B-6D0F91B4A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -693,7 +693,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I2" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,9 +701,9 @@
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="20" width="8.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="8.7109375" style="12" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,7 +797,9 @@
       <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -873,7 +875,9 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -949,7 +953,9 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -986,7 +992,9 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1025,7 +1033,9 @@
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1169,7 +1179,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1317,7 +1329,9 @@
         <v>18</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1354,7 +1368,9 @@
       <c r="H17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1393,7 +1409,9 @@
       <c r="H18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1467,7 +1485,9 @@
       <c r="H20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1504,7 +1524,9 @@
       <c r="H21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1670,15 +1692,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="mailto:mabermeo@gmail.com" xr:uid="{4CB0B9E1-3317-4BA0-8793-4D98A5D93DC5}"/>
-    <hyperlink ref="I19" r:id="rId2" display="mailto:ldelcampob@gmail.com" xr:uid="{4A704D0E-078C-49B0-B7F0-3F8821C5E063}"/>
-    <hyperlink ref="I16" r:id="rId3" display="mailto:diana.solano90@gmail.com" xr:uid="{1F092E4D-15E7-4C96-889A-E621288FE123}"/>
-    <hyperlink ref="I11" r:id="rId4" display="mailto:Miguel2001delcampo@gmail.com" xr:uid="{AA99A86D-3068-44FF-A331-EF4C5392E00F}"/>
-    <hyperlink ref="I12" r:id="rId5" display="mailto:frediaz1708@gmail.com" xr:uid="{C7159407-B3A6-41BD-B4DD-665272D05290}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EFB55-2DA8-4B7E-853B-6D0F91B4A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910CE876-0ECC-4906-A2A3-C858FFD8739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="MES 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -227,6 +228,12 @@
   </si>
   <si>
     <t xml:space="preserve">Villafuerte </t>
+  </si>
+  <si>
+    <t>NOMBRE COMPLETO</t>
+  </si>
+  <si>
+    <t>Franklin Hernando</t>
   </si>
 </sst>
 </file>
@@ -689,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA9D81-A49A-432B-9C27-0868EF764762}">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I22"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,9 +708,9 @@
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="8.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="20" width="8.7109375" style="12" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1353,7 +1360,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>22</v>
@@ -1676,6 +1683,701 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{822E94FF-5372-4CF3-B063-52D39E2AAFAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{822E94FF-5372-4CF3-B063-52D39E2AAFAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B8:B9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10">
+        <v>44472</v>
+      </c>
+      <c r="F1" s="10">
+        <v>44479</v>
+      </c>
+      <c r="G1" s="10">
+        <v>44486</v>
+      </c>
+      <c r="H1" s="10">
+        <v>44493</v>
+      </c>
+      <c r="I1" s="10">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>CONCATENATE(B2,", ",C2)</f>
+        <v>Alamo Ramos, Nick Patrick </v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D22" si="0">CONCATENATE(B3,", ",C3)</f>
+        <v>Balbin Vega, Luis Neder </v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Balbin Vega, Paula Luisa </v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermeo Roman, Martin Alonso</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Caceres Caurino, Cesar Jovanni</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Camacho, Satumar</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Chahuayo Huaman, Jim Paul</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Choquehuanca Roman, Leonardo Ramon </v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Del Campo, Luis</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Del Campo, Miguel Angel</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Diaz, Fredy</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medina, Carlos</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Neyra Caballero, Daniel </v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodman, Denis</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Solano, Diana</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Torre Camones, Hernando</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Valle Roman, Johnny Gerson </v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Vasquez, Luis</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Vega Ramos, Nancy Norah</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Villafuerte , Luis</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Padilla Sandoval, Juan Roberto</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B9">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910CE876-0ECC-4906-A2A3-C858FFD8739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C92E37-A284-44F6-808A-E67D00628C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -700,7 +700,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,8 +709,7 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="9" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="10" max="20" width="8.7109375" style="12" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="12" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,7 +806,9 @@
       <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -885,7 +886,9 @@
       <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -963,7 +966,9 @@
       <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1043,7 +1048,9 @@
       <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1228,7 +1235,9 @@
         <v>18</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1339,7 +1348,9 @@
       <c r="I16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1378,7 +1389,9 @@
       <c r="I17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1419,7 +1432,9 @@
       <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1495,7 +1510,9 @@
       <c r="I20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1534,7 +1551,9 @@
       <c r="I21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1571,7 +1590,9 @@
         <v>18</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C92E37-A284-44F6-808A-E67D00628C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44952F92-64D9-45C3-B855-0D1A33880064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,6 +393,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,156 +728,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA9D81-A49A-432B-9C27-0868EF764762}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" style="12" customWidth="1"/>
+    <col min="12" max="21" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10">
+      <c r="F2" s="10">
         <v>44472</v>
       </c>
-      <c r="F1" s="10">
+      <c r="G2" s="10">
         <v>44479</v>
       </c>
-      <c r="G1" s="10">
+      <c r="H2" s="10">
         <v>44486</v>
       </c>
-      <c r="H1" s="10">
+      <c r="I2" s="10">
         <v>44493</v>
       </c>
-      <c r="I1" s="10">
+      <c r="J2" s="10">
         <v>44500</v>
       </c>
-      <c r="J1" s="10">
+      <c r="K2" s="10">
         <v>44507</v>
       </c>
-      <c r="K1" s="10">
+      <c r="L2" s="10">
         <v>44514</v>
       </c>
-      <c r="L1" s="10">
+      <c r="M2" s="10">
         <v>44521</v>
       </c>
-      <c r="M1" s="10">
+      <c r="N2" s="10">
         <v>44528</v>
       </c>
-      <c r="N1" s="10">
+      <c r="O2" s="10">
         <v>44535</v>
       </c>
-      <c r="O1" s="10">
+      <c r="P2" s="10">
         <v>44542</v>
       </c>
-      <c r="P1" s="10">
+      <c r="Q2" s="10">
         <v>44549</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="R2" s="10">
         <v>44556</v>
       </c>
-      <c r="R1" s="10">
+      <c r="S2" s="10">
         <v>44563</v>
       </c>
-      <c r="S1" s="10">
+      <c r="T2" s="10">
         <v>44570</v>
       </c>
-      <c r="T1" s="10">
+      <c r="U2" s="10">
         <v>44577</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -857,39 +852,33 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4"/>
+      <c r="D4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -900,33 +889,39 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -937,22 +932,20 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -960,16 +953,14 @@
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -980,21 +971,21 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1007,8 +998,12 @@
       <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1019,26 +1014,22 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1062,33 +1053,39 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1099,22 +1096,20 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -1123,7 +1118,9 @@
       <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1136,31 +1133,31 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1173,25 +1170,27 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
         <v>18</v>
@@ -1208,32 +1207,26 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
         <v>18</v>
@@ -1249,22 +1242,20 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
@@ -1275,9 +1266,13 @@
       <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1288,27 +1283,33 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1321,37 +1322,29 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1362,21 +1355,21 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1386,13 +1379,13 @@
       <c r="H17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1403,26 +1396,22 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1424,9 @@
       <c r="J18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1446,31 +1437,39 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1481,39 +1480,31 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1524,21 +1515,21 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1545,9 @@
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1565,35 +1558,37 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1604,30 +1599,49 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1644,10 +1658,10 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1664,10 +1678,10 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1684,10 +1698,10 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1704,9 +1718,30 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:B9">
+  <conditionalFormatting sqref="C9:C10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1734,7 +1769,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B8:B9</xm:sqref>
+          <xm:sqref>C9:C10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44952F92-64D9-45C3-B855-0D1A33880064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED7986-66D0-4996-8270-2A90B00FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,19 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -348,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -392,9 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,6 +421,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +753,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,9 +763,8 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="11" width="8.7109375" style="12" customWidth="1"/>
-    <col min="12" max="21" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="21" width="8.7109375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +863,9 @@
       <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -857,28 +880,28 @@
       </c>
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="F4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -895,13 +918,13 @@
       <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -922,7 +945,9 @@
       <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1004,7 +1029,9 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1086,7 +1113,9 @@
       <c r="K9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1232,7 +1261,9 @@
         <v>18</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1273,7 +1304,9 @@
       <c r="K14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1312,7 +1345,9 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1325,26 +1360,26 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1427,7 +1462,9 @@
       <c r="K18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1470,7 +1507,9 @@
       <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1483,28 +1522,28 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>18</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="15">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="F20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1548,7 +1587,9 @@
       <c r="K21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1589,7 +1630,9 @@
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1605,13 +1648,13 @@
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED7986-66D0-4996-8270-2A90B00FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA753B-079A-4139-BAF2-E044FA0A796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,8 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="21" width="8.7109375" style="12" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="21" width="8.7109375" style="12" customWidth="1"/>
     <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,7 +1672,9 @@
       <c r="K23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA753B-079A-4139-BAF2-E044FA0A796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1902E214-69C4-4E66-B25F-3625FDE4B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,9 @@
       <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -949,7 +951,9 @@
       <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1033,7 +1037,9 @@
       <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1117,7 +1123,9 @@
       <c r="L9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1308,7 +1316,9 @@
       <c r="L14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1349,7 +1359,9 @@
       <c r="L15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1423,7 +1435,9 @@
         <v>18</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1466,7 +1480,9 @@
       <c r="L18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1591,7 +1607,9 @@
       <c r="L21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1634,7 +1652,9 @@
       <c r="L22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1675,7 +1695,9 @@
       <c r="L23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1902E214-69C4-4E66-B25F-3625FDE4B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E7C147-70AE-4EE0-9730-87ECB9FDF0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -753,7 +753,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,8 +763,8 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="11" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="21" width="8.7109375" style="12" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="21" width="8.7109375" style="12" customWidth="1"/>
     <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E7C147-70AE-4EE0-9730-87ECB9FDF0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F12AD-A35B-4AB0-8EEE-4F674E02D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="MES 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="MES 2" sheetId="2" r:id="rId2"/>
+    <sheet name="MES 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -240,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +300,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -361,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,6 +447,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA9D81-A49A-432B-9C27-0868EF764762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E040883-3FDD-4158-99A5-D7068D213F81}">
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,9 +803,9 @@
     <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="13" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="14" max="21" width="8.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="15" max="21" width="8.7109375" style="12" customWidth="1"/>
     <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,7 +912,9 @@
         <v>18</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -954,8 +997,12 @@
       <c r="M5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1040,8 +1087,12 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1126,8 +1177,12 @@
       <c r="M9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1319,8 +1374,12 @@
       <c r="M14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1362,8 +1421,12 @@
       <c r="M15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1483,7 +1546,9 @@
       <c r="M18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1529,7 +1594,9 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1610,7 +1677,1131 @@
       <c r="M21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{44F423BE-3140-4800-AF6F-06AC301B45C9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{44F423BE-3140-4800-AF6F-06AC301B45C9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C9:C10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA9D81-A49A-432B-9C27-0868EF764762}">
+  <dimension ref="B2:V28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" style="12" customWidth="1"/>
+    <col min="15" max="21" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="11" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44472</v>
+      </c>
+      <c r="G2" s="10">
+        <v>44479</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44486</v>
+      </c>
+      <c r="I2" s="10">
+        <v>44493</v>
+      </c>
+      <c r="J2" s="10">
+        <v>44500</v>
+      </c>
+      <c r="K2" s="10">
+        <v>44507</v>
+      </c>
+      <c r="L2" s="10">
+        <v>44514</v>
+      </c>
+      <c r="M2" s="10">
+        <v>44521</v>
+      </c>
+      <c r="N2" s="10">
+        <v>44528</v>
+      </c>
+      <c r="O2" s="10">
+        <v>44535</v>
+      </c>
+      <c r="P2" s="10">
+        <v>44542</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>44549</v>
+      </c>
+      <c r="R2" s="10">
+        <v>44556</v>
+      </c>
+      <c r="S2" s="10">
+        <v>44563</v>
+      </c>
+      <c r="T2" s="10">
+        <v>44570</v>
+      </c>
+      <c r="U2" s="10">
+        <v>44577</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>16</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1621,41 +2812,43 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="28">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="4"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1666,39 +2859,41 @@
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="28">
         <v>21</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="4"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1845,7 +3040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
   <dimension ref="A1:I27"/>
   <sheetViews>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F12AD-A35B-4AB0-8EEE-4F674E02D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750BF7C2-6211-4282-8334-23E20E11C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,26 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,11 +287,17 @@
       <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -375,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -395,12 +382,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,20 +397,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,43 +421,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,125 +769,125 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
-    <col min="6" max="14" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="21" width="8.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="15" width="8.7109375" style="10" customWidth="1"/>
+    <col min="16" max="21" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>44472</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>44479</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>44486</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>44493</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>44500</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>44507</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>44514</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <v>44521</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="8">
         <v>44528</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <v>44535</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="8">
         <v>44542</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>44549</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>44556</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="8">
         <v>44563</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="8">
         <v>44570</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="8">
         <v>44577</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="F3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P3" s="4"/>
@@ -926,32 +901,32 @@
       </c>
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="F4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -961,46 +936,46 @@
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="F5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="4"/>
@@ -1012,36 +987,36 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="F6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1051,46 +1026,46 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="F7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="4"/>
@@ -1102,36 +1077,36 @@
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1141,46 +1116,46 @@
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="F9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="4"/>
@@ -1192,34 +1167,34 @@
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="F10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1229,34 +1204,34 @@
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="F11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1266,34 +1241,34 @@
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="F12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1303,34 +1278,34 @@
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="F13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1340,44 +1315,44 @@
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="F14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P14" s="4"/>
@@ -1389,42 +1364,42 @@
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="F15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P15" s="4"/>
@@ -1436,30 +1411,30 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="21">
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1469,40 +1444,40 @@
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+      <c r="B17" s="21">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="F17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1512,44 +1487,44 @@
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="B18" s="21">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="4"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="24"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1559,42 +1534,42 @@
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+      <c r="B19" s="21">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="F19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="4"/>
@@ -1606,32 +1581,32 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
-        <v>18</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="F20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1641,46 +1616,46 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="24">
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="F21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="4"/>
@@ -1692,44 +1667,44 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="24">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="4" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="4"/>
@@ -1741,42 +1716,42 @@
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="24">
         <v>21</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="4"/>
@@ -1788,104 +1763,104 @@
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="26" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="B26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
     </row>
     <row r="27" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
     </row>
     <row r="28" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C9:C10">
@@ -1935,119 +1910,119 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="8.7109375" style="12" customWidth="1"/>
-    <col min="15" max="21" width="8.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" style="10" customWidth="1"/>
+    <col min="15" max="21" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>44472</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>44479</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>44486</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>44493</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>44500</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>44507</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>44514</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <v>44521</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="8">
         <v>44528</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <v>44535</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="8">
         <v>44542</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>44549</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>44556</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="8">
         <v>44563</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="8">
         <v>44570</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="8">
         <v>44577</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="28"/>
+      <c r="F3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="15"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2060,31 +2035,31 @@
       </c>
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2095,43 +2070,43 @@
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="28" t="s">
+      <c r="F5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="4"/>
@@ -2144,35 +2119,35 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="F6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2183,43 +2158,43 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="4"/>
@@ -2232,35 +2207,35 @@
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -2271,43 +2246,43 @@
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="28" t="s">
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="4"/>
@@ -2320,33 +2295,33 @@
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -2357,33 +2332,33 @@
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -2394,33 +2369,33 @@
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="F12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -2431,33 +2406,33 @@
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="F13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2468,41 +2443,41 @@
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
+      <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="28" t="s">
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="4"/>
@@ -2515,39 +2490,39 @@
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="28" t="s">
+      <c r="F15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="4"/>
@@ -2560,29 +2535,29 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2593,39 +2568,39 @@
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25">
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="28"/>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="15"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2636,41 +2611,41 @@
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="28" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="4"/>
@@ -2683,41 +2658,41 @@
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2728,31 +2703,31 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
-        <v>18</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="F20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2763,43 +2738,43 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="15">
         <v>19</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="28" t="s">
+      <c r="F21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O21" s="4"/>
@@ -2812,41 +2787,41 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+      <c r="B22" s="15">
         <v>20</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="28" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O22" s="4"/>
@@ -2859,39 +2834,39 @@
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
+      <c r="B23" s="15">
         <v>21</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="28" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O23" s="4"/>
@@ -2904,104 +2879,104 @@
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="26" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="B26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
     </row>
     <row r="27" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
     </row>
     <row r="28" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C9:C10">
@@ -3050,44 +3025,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="9" width="8.7109375" style="12" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="8">
         <v>44472</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="8">
         <v>44479</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="8">
         <v>44486</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="8">
         <v>44493</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="8">
         <v>44500</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3117,7 +3092,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3141,7 +3116,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3171,7 +3146,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3197,7 +3172,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3227,7 +3202,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3255,7 +3230,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3285,7 +3260,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3311,7 +3286,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3337,7 +3312,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3363,7 +3338,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3387,7 +3362,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3415,7 +3390,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3443,7 +3418,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3465,7 +3440,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3493,7 +3468,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3521,7 +3496,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3551,7 +3526,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3659,44 +3634,44 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B9">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750BF7C2-6211-4282-8334-23E20E11C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952D658-CB7B-4EC5-B739-34CECA62CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -769,7 +769,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="P3" sqref="P3:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,9 +779,9 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="15" width="8.7109375" style="10" customWidth="1"/>
-    <col min="16" max="21" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="15" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="8.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,7 +890,9 @@
       <c r="O3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -978,7 +980,9 @@
       <c r="O5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1068,7 +1072,9 @@
       <c r="O7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1158,7 +1164,9 @@
       <c r="O9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1355,7 +1363,9 @@
       <c r="O14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -1402,7 +1412,9 @@
       <c r="O15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -1525,7 +1537,9 @@
         <v>18</v>
       </c>
       <c r="O18" s="24"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -1658,7 +1672,9 @@
       <c r="O21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -1707,7 +1723,9 @@
       <c r="O22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -1754,7 +1772,9 @@
       <c r="O23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952D658-CB7B-4EC5-B739-34CECA62CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040E6A4-8379-40C1-9F83-A585A0A15BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="MES 2" sheetId="2" r:id="rId2"/>
-    <sheet name="MES 1" sheetId="1" r:id="rId3"/>
+    <sheet name="MES 3" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="MES 2" sheetId="2" r:id="rId3"/>
+    <sheet name="MES 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -765,11 +766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E040883-3FDD-4158-99A5-D7068D213F81}">
-  <dimension ref="B2:V28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A538397-CAB3-408F-A6C3-9ADADBC3B153}">
+  <dimension ref="B2:V19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P23"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,8 +780,851 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="15" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="8.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44472</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44479</v>
+      </c>
+      <c r="H2" s="8">
+        <v>44486</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44493</v>
+      </c>
+      <c r="J2" s="8">
+        <v>44500</v>
+      </c>
+      <c r="K2" s="8">
+        <v>44507</v>
+      </c>
+      <c r="L2" s="8">
+        <v>44514</v>
+      </c>
+      <c r="M2" s="8">
+        <v>44521</v>
+      </c>
+      <c r="N2" s="8">
+        <v>44528</v>
+      </c>
+      <c r="O2" s="8">
+        <v>44535</v>
+      </c>
+      <c r="P2" s="8">
+        <v>44542</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>44549</v>
+      </c>
+      <c r="R2" s="8">
+        <v>44556</v>
+      </c>
+      <c r="S2" s="8">
+        <v>44563</v>
+      </c>
+      <c r="T2" s="8">
+        <v>44570</v>
+      </c>
+      <c r="U2" s="8">
+        <v>44577</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E670BECF-167B-4D41-ADA9-944FF70FFB59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E670BECF-167B-4D41-ADA9-944FF70FFB59}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E040883-3FDD-4158-99A5-D7068D213F81}">
+  <dimension ref="B2:V28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="21" width="8.7109375" style="10" customWidth="1"/>
     <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1919,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA9D81-A49A-432B-9C27-0868EF764762}">
   <dimension ref="B2:V28"/>
   <sheetViews>
@@ -3035,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
   <dimension ref="A1:I27"/>
   <sheetViews>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040E6A4-8379-40C1-9F83-A585A0A15BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB1B98-BC65-4EE4-9904-4020508AD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14535" windowHeight="13170" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 3" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="B2:V19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,9 +894,7 @@
       <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -951,9 +949,7 @@
       <c r="P4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1114,9 +1110,7 @@
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1306,9 +1300,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB1B98-BC65-4EE4-9904-4020508AD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73927190-FB28-4E4C-BA8C-EEFF0A8233AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14535" windowHeight="13170" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 3" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="B2:V19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,9 @@
       <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -949,7 +951,9 @@
       <c r="P4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1110,7 +1114,9 @@
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1300,7 +1306,9 @@
         <v>18</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73927190-FB28-4E4C-BA8C-EEFF0A8233AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002F007-879B-4340-AC12-EAAC7FD5EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -767,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A538397-CAB3-408F-A6C3-9ADADBC3B153}">
-  <dimension ref="B2:V19"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +779,11 @@
     <col min="2" max="2" width="8.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="16" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="21" width="8.7109375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.7109375" style="10" customWidth="1"/>
+    <col min="18" max="21" width="8.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,39 +1177,47 @@
       <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>39</v>
+      <c r="C9" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>18</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="O9" s="24"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1219,16 +1228,18 @@
       <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>63</v>
+      <c r="C10" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="24" t="s">
         <v>18</v>
       </c>
@@ -1247,16 +1258,12 @@
       <c r="L10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1271,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>18</v>
@@ -1300,12 +1307,18 @@
       <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="O11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1319,18 +1332,16 @@
       <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>42</v>
+      <c r="C12" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>18</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
         <v>18</v>
       </c>
@@ -1375,13 +1386,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
@@ -1393,9 +1404,7 @@
       <c r="I13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
         <v>18</v>
       </c>
@@ -1414,9 +1423,7 @@
       <c r="P13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1424,53 +1431,24 @@
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
-        <v>12</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -1551,26 +1529,6 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -1614,7 +1572,7 @@
   <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -1834,7 +1792,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -1926,7 +1884,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -2018,7 +1976,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>8</v>
       </c>
@@ -2055,7 +2013,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>9</v>
       </c>
@@ -2092,7 +2050,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>10</v>
       </c>
@@ -2129,7 +2087,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -2266,7 +2224,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>14</v>
       </c>
@@ -2299,7 +2257,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>15</v>
       </c>
@@ -2438,7 +2396,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>18</v>
       </c>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002F007-879B-4340-AC12-EAAC7FD5EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB04E13-707D-4EFE-B469-759E8EEC8E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -767,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A538397-CAB3-408F-A6C3-9ADADBC3B153}">
-  <dimension ref="B2:V18"/>
+  <dimension ref="B2:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +781,12 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
     <col min="6" max="14" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" style="10" customWidth="1"/>
-    <col min="18" max="21" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="21" width="8.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
@@ -836,7 +836,7 @@
         <v>44549</v>
       </c>
       <c r="R2" s="8">
-        <v>44556</v>
+        <v>44570</v>
       </c>
       <c r="S2" s="8">
         <v>44563</v>
@@ -850,8 +850,9 @@
       <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>1</v>
       </c>
@@ -905,8 +906,9 @@
       <c r="V3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -955,13 +957,18 @@
       <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -1010,13 +1017,18 @@
       <c r="Q5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -1065,13 +1077,18 @@
       <c r="Q6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -1123,8 +1140,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -1167,13 +1185,18 @@
         <v>18</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>7</v>
       </c>
@@ -1218,13 +1241,18 @@
       <c r="Q9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>8</v>
       </c>
@@ -1272,8 +1300,9 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>9</v>
       </c>
@@ -1322,13 +1351,16 @@
       <c r="Q11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>10</v>
       </c>
@@ -1375,13 +1407,18 @@
       <c r="Q12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -1424,13 +1461,16 @@
         <v>18</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1449,8 +1489,9 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
-    </row>
-    <row r="15" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1469,8 +1510,9 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-    </row>
-    <row r="16" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1489,8 +1531,9 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1509,8 +1552,9 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1529,6 +1573,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB04E13-707D-4EFE-B469-759E8EEC8E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A8562-1377-4E81-95CF-D38CE5E9A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="B2:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
         <v>44570</v>
       </c>
       <c r="S2" s="8">
-        <v>44563</v>
+        <v>44577</v>
       </c>
       <c r="T2" s="8">
         <v>44570</v>
@@ -900,7 +900,9 @@
         <v>18</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4">
@@ -960,7 +962,9 @@
       <c r="R4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -1020,7 +1024,9 @@
       <c r="R5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -1080,7 +1086,9 @@
       <c r="R6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -1188,7 +1196,9 @@
       <c r="R8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -1244,7 +1254,9 @@
       <c r="R9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1296,7 +1308,9 @@
         <v>18</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1354,7 +1368,9 @@
       <c r="R11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1410,7 +1426,9 @@
       <c r="R12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1464,7 +1482,9 @@
       <c r="R13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A8562-1377-4E81-95CF-D38CE5E9A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275BFBE-1A22-4F89-A47F-3280B1E0626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="B2:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>44577</v>
       </c>
       <c r="T2" s="8">
-        <v>44570</v>
+        <v>44584</v>
       </c>
       <c r="U2" s="8">
         <v>44577</v>
@@ -903,7 +903,9 @@
       <c r="S3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4">
         <v>1</v>
@@ -965,7 +967,9 @@
       <c r="S4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="9">
@@ -1027,7 +1031,9 @@
       <c r="S5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="9">
@@ -1089,7 +1095,9 @@
       <c r="S6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="9">
@@ -1199,7 +1207,9 @@
       <c r="S8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="9">
@@ -1257,7 +1267,9 @@
       <c r="S9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="9">
@@ -1311,7 +1323,9 @@
       <c r="S10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="9"/>
@@ -1371,7 +1385,9 @@
       <c r="S11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="9"/>
@@ -1429,7 +1445,9 @@
       <c r="S12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="9">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275BFBE-1A22-4F89-A47F-3280B1E0626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D5520-4728-4569-B6DB-75A2D584E5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="67">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -767,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A538397-CAB3-408F-A6C3-9ADADBC3B153}">
-  <dimension ref="B2:W18"/>
+  <dimension ref="B2:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +781,12 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" hidden="1" customWidth="1"/>
     <col min="6" max="14" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="21" width="8.7109375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="10"/>
+    <col min="15" max="22" width="8.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
@@ -845,14 +845,17 @@
         <v>44584</v>
       </c>
       <c r="U2" s="8">
+        <v>44591</v>
+      </c>
+      <c r="V2" s="8">
         <v>44577</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="9"/>
-    </row>
-    <row r="3" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>1</v>
       </c>
@@ -907,12 +910,13 @@
         <v>18</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="V3" s="4">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
         <v>1</v>
       </c>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -970,13 +974,16 @@
       <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V4" s="4"/>
-      <c r="W4" s="9">
+      <c r="W4" s="4"/>
+      <c r="X4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -1034,13 +1041,16 @@
       <c r="T5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V5" s="4"/>
-      <c r="W5" s="9">
+      <c r="W5" s="4"/>
+      <c r="X5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -1098,13 +1108,16 @@
       <c r="T6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V6" s="4"/>
-      <c r="W6" s="9">
+      <c r="W6" s="4"/>
+      <c r="X6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -1156,9 +1169,10 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="4"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -1210,13 +1224,16 @@
       <c r="T8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="9">
+      <c r="W8" s="4"/>
+      <c r="X8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>7</v>
       </c>
@@ -1270,13 +1287,16 @@
       <c r="T9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V9" s="4"/>
-      <c r="W9" s="9">
+      <c r="W9" s="4"/>
+      <c r="X9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>8</v>
       </c>
@@ -1328,9 +1348,10 @@
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="4"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>9</v>
       </c>
@@ -1388,11 +1409,14 @@
       <c r="T11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="4"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>10</v>
       </c>
@@ -1448,13 +1472,16 @@
       <c r="T12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="9">
+      <c r="W12" s="4"/>
+      <c r="X12" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -1506,9 +1533,10 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="4"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1528,8 +1556,9 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1549,8 +1578,9 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1570,8 +1600,9 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1591,8 +1622,9 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="2:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1612,6 +1644,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">

--- a/Docs/ASISTENCIA.xlsx
+++ b/Docs/ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D5520-4728-4569-B6DB-75A2D584E5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1868912F-18F2-4102-9CA6-EDB62703EC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="68">
   <si>
     <t>CORREO EMPRESA</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Franklin Hernando</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <dimension ref="B2:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +851,7 @@
         <v>44591</v>
       </c>
       <c r="V2" s="8">
-        <v>44577</v>
+        <v>44598</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>24</v>
@@ -910,7 +913,9 @@
         <v>18</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W3" s="4">
         <v>1</v>
       </c>
@@ -977,7 +982,9 @@
       <c r="U4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="9">
         <v>1</v>
@@ -1044,7 +1051,9 @@
       <c r="U5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="9">
         <v>1</v>
@@ -1111,7 +1120,9 @@
       <c r="U6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="9">
         <v>1</v>
@@ -1227,7 +1238,9 @@
       <c r="U8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="9">
         <v>1</v>
@@ -1290,8 +1303,12 @@
       <c r="U9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="X9" s="9">
         <v>1</v>
       </c>
@@ -1412,8 +1429,12 @@
       <c r="U11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="X11" s="9"/>
     </row>
     <row r="12" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,8 +1496,12 @@
       <c r="U12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="X12" s="9">
         <v>3</v>
       </c>
